--- a/02_MasterWifoMannheim/03_Courses/Course165.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course165.xlsx
@@ -1,37 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/99_Backup/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_2B59D2BFD320D83EA79A3011599950B74C8DFF6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{623D926E-00B0-4C91-B2D8-C8BA37047083}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>OPM 661 Business Analytics: Robust Planning in Stochastic Systems</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>A major driver of the performance of operations systems is stochastic variability. example, production systems often operate in an uncertain environment due to uncertain demand, unreliable machines or random processing capacities. decisions, we apply analytical solution approaches. The basic concepts of the analysis of Markovian queueing systems are developed in detail. systems with general distributions, heterogeneities, and time-dependent input parameters are covered. Adiscussed. Several methods and performance measures of robust planning and optimization are introduced. It is used to perform sensitivity analyses to develop managerial insights.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>Students learn to understand the impact of stochastic variability in operations systems. After this course students are familiar with the theory and practice of the analysis of stochastic systems. They learn to adapt and to apply analytical approximations and robust planning methods to support managerial decisions.</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>OPM 501| OPM 502| OPM 561| OPM 581| OPM 582| OPM 591</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further information on registration:</t>
+  </si>
+  <si>
+    <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 2 2</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written exam (maximum 70 points), case study (maximum 20 points)</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Raik Stolletz</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>FWS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.,</t>
+  </si>
+  <si>
+    <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +151,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,217 +475,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>OPM 661 Business Analytics: Robust Planning in Stochastic Systems</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A major driver of the performance of operations systems is stochastic variability. example, production systems often operate in an uncertain environment due to uncertain demand, unreliable machines or random processing capacities. decisions, we apply analytical solution approaches. The basic concepts of the analysis of Markovian queueing systems are developed in detail. systems with general distributions, heterogeneities, and time-dependent input parameters are covered. Adiscussed. Several methods and performance measures of robust planning and optimization are introduced. It is used to perform sensitivity analyses to develop managerial insights.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Students learn to understand the impact of stochastic variability in operations systems. After this course students are familiar with the theory and practice of the analysis of stochastic systems. They learn to adapt and to apply analytical approximations and robust planning methods to support managerial decisions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>OPM 501| OPM 502| OPM 561| OPM 581| OPM 582| OPM 591</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Formal: At least one of the modules OPM 501, 502, 561, 581, 582 or 591 (parallel attendance possible); other modules may be accepted upon request.Recommended: Participants should be familiar with the fundamentals of production and operations management. The course further assumes a basic knowledge in mathematics (including linear programming) and in statistics (probability distributions).</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Further information on registration:</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 2 2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Written exam (maximum 70 points), case study (maximum 20 points)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Raik Stolletz</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>FWS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.,</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
